--- a/biology/Mycologie/Leccinum_albostipitatum/Leccinum_albostipitatum.xlsx
+++ b/biology/Mycologie/Leccinum_albostipitatum/Leccinum_albostipitatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet orangé, Bolet orangé des peupliers
 Leccinum albostipitatum, le Bolet orangé, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il fait partie d'un complexe d'espèces comprenant d'autres Leccinum à chapeau orangé. Comestible, il est caractérisé par ses mèches blanchâtres et son habitat sous peupliers.
@@ -512,14 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum albostipitatum den Bakker &amp; Noordel.[1].
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet orangé[2].
-Il est à noter que le terme de "Bolet orangé" constitue un nom vernaculaire utilisé populairement de façon vague et inexacte, pouvant désigner n'importe quel bolet rude (Leccinum) à chapeau de couleur orangée (Leccinum aurantiacum, Leccinum versipelle, Leccinum vulpinum, Leccinum piceinum) de façon assez arbitraire. Ce nom est souvent utilisé en tant que terme passe-partout et approximatif pour faire référence à n'importe laquelle de ces espèces, ce qui rend ardu de savoir à quelle espèce précise l'utilisateur de ce nom fait référence (en supposant qu'il connaisse lui-même l'espèce exacte en question, ce qui est rarement le cas). De la même façon, ces Bolets rudes à chapeau orangé sont également connus sous les noms régionaux populaires, ambigus et vagues, de "Pible", "Pible orange" ou "Pible rouge".
-Cependant, concernant Leccinum albostipitatum, selon la Société Mycologique de France, le terme de "Bolet orangé" constitue son nom normalisé. Si ce nom vernaculaire, fréquemment utilisé en tant qu'abus de langage, ne devait désigner une seule espèce, il ne devrait strictement désigner que Leccinum albostipitatum, qui est l'espèce à laquelle ce nom se doit de revenir exclusivement[3].
-On connait également Leccinum albostipitatum sous le nom de : Bolet orangé des peupliers[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum albostipitatum den Bakker &amp; Noordel..
 </t>
         </is>
       </c>
@@ -545,18 +554,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet orangé.
+Il est à noter que le terme de "Bolet orangé" constitue un nom vernaculaire utilisé populairement de façon vague et inexacte, pouvant désigner n'importe quel bolet rude (Leccinum) à chapeau de couleur orangée (Leccinum aurantiacum, Leccinum versipelle, Leccinum vulpinum, Leccinum piceinum) de façon assez arbitraire. Ce nom est souvent utilisé en tant que terme passe-partout et approximatif pour faire référence à n'importe laquelle de ces espèces, ce qui rend ardu de savoir à quelle espèce précise l'utilisateur de ce nom fait référence (en supposant qu'il connaisse lui-même l'espèce exacte en question, ce qui est rarement le cas). De la même façon, ces Bolets rudes à chapeau orangé sont également connus sous les noms régionaux populaires, ambigus et vagues, de "Pible", "Pible orange" ou "Pible rouge".
+Cependant, concernant Leccinum albostipitatum, selon la Société Mycologique de France, le terme de "Bolet orangé" constitue son nom normalisé. Si ce nom vernaculaire, fréquemment utilisé en tant qu'abus de langage, ne devait désigner une seule espèce, il ne devrait strictement désigner que Leccinum albostipitatum, qui est l'espèce à laquelle ce nom se doit de revenir exclusivement.
+On connait également Leccinum albostipitatum sous le nom de : Bolet orangé des peupliers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leccinum_albostipitatum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_albostipitatum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum albostipitatum, le Bolet orangé, sont les suivantes :
-Son chapeau mesure de 4 à 20 cm. D'aspect finement feutré, il est de couleur orangé vif puis orangé terne. La cuticule déborde souvent sur les tubes au bord du chapeau[5].
-L'hyménophore présente des tubes blancs puis grisâtres et enfin brun-gris. Les pores sont concolores aux tubes[5].
-Son stipe mesure 6 à 20 cm x 2 à 5 cm. Il est couvert de fines mèches d'abord blanches peu visibles d'aspect floconneux, puis qui se teintent de roux et noircissent au toucher. La base du pied est parfois vert-bleu[5].
-La chair est blanche, devenant rose puis gris mauve et enfin anthracite à la coupe. Sa saveur est douce et son odeur est faible[5].
-Caractéristiques microscopiques
-Ses spores mesurent 16 à 17,5 μm x 4,5 à 5,5 μm, de forme allongée-fusoïde[5].
+Son chapeau mesure de 4 à 20 cm. D'aspect finement feutré, il est de couleur orangé vif puis orangé terne. La cuticule déborde souvent sur les tubes au bord du chapeau.
+L'hyménophore présente des tubes blancs puis grisâtres et enfin brun-gris. Les pores sont concolores aux tubes.
+Son stipe mesure 6 à 20 cm x 2 à 5 cm. Il est couvert de fines mèches d'abord blanches peu visibles d'aspect floconneux, puis qui se teintent de roux et noircissent au toucher. La base du pied est parfois vert-bleu.
+La chair est blanche, devenant rose puis gris mauve et enfin anthracite à la coupe. Sa saveur est douce et son odeur est faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinum_albostipitatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_albostipitatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 16 à 17,5 μm x 4,5 à 5,5 μm, de forme allongée-fusoïde.
 </t>
         </is>
       </c>
